--- a/EXCEL_OUPUT/BFE_Financial_Report_MAR23_FINAL_Signed.xlsx
+++ b/EXCEL_OUPUT/BFE_Financial_Report_MAR23_FINAL_Signed.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="959">
   <si>
     <t>Sale of goods</t>
   </si>
@@ -1642,7 +1642,7 @@
     <t>liabilities and assets reflects the tax consequences</t>
   </si>
   <si>
-    <t>assets ofits and liabilities.</t>
+    <t>ofits assets and liabilities.</t>
   </si>
   <si>
     <t>members of the tax-consolidated group</t>
@@ -2608,49 +2608,64 @@
     <t>638</t>
   </si>
   <si>
-    <t>Other comprehensive</t>
+    <t>Profit for the year</t>
+  </si>
+  <si>
+    <t>Other comprehensive income for the year, net of</t>
+  </si>
+  <si>
+    <t>income tax</t>
   </si>
   <si>
     <t>Total comprehensive income</t>
   </si>
   <si>
-    <t>Total comprehensive</t>
-  </si>
-  <si>
-    <t>income</t>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t>for the year</t>
+  </si>
+  <si>
+    <t>for the</t>
+  </si>
+  <si>
+    <t>year, net of</t>
   </si>
   <si>
     <t>Issued Capital</t>
   </si>
   <si>
+    <t>105000</t>
+  </si>
+  <si>
     <t>Hedge Reserve $</t>
   </si>
   <si>
-    <t>income tax</t>
-  </si>
-  <si>
-    <t>105000</t>
-  </si>
-  <si>
     <t>Retained Earnings</t>
   </si>
   <si>
-    <t>Profit for the year</t>
-  </si>
-  <si>
-    <t>for the year</t>
+    <t>13555762</t>
+  </si>
+  <si>
+    <t>14773347</t>
+  </si>
+  <si>
+    <t>14219004</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>13555762</t>
-  </si>
-  <si>
-    <t>14773347</t>
-  </si>
-  <si>
-    <t>14219004</t>
+    <t>13660762</t>
+  </si>
+  <si>
+    <t>14878347</t>
+  </si>
+  <si>
+    <t>2309376</t>
+  </si>
+  <si>
+    <t>14187723</t>
   </si>
   <si>
     <t>CURRENT ASSETS</t>
@@ -2794,9 +2809,6 @@
     <t>15632401</t>
   </si>
   <si>
-    <t>14187723</t>
-  </si>
-  <si>
     <t>16250479</t>
   </si>
   <si>
@@ -2821,9 +2833,6 @@
     <t>15097142</t>
   </si>
   <si>
-    <t>14878347</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -2888,9 +2897,6 @@
   </si>
   <si>
     <t>(1,053,390)</t>
-  </si>
-  <si>
-    <t>2309376</t>
   </si>
   <si>
     <t>Year ended 31 March 2022</t>
@@ -9892,13 +9898,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -9917,164 +9923,203 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="C2" t="s">
-        <v>860</v>
-      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="D2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" t="s">
+      <c r="G2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>861</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>866</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>161</v>
       </c>
-      <c r="E4" t="s">
-        <v>863</v>
+      <c r="D4" t="s">
+        <v>865</v>
       </c>
       <c r="F4" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="E5" t="s">
-        <v>865</v>
+      <c r="G4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>856</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="F7" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>857</v>
+      </c>
+      <c r="C6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B8" t="s">
-        <v>857</v>
-      </c>
-      <c r="E8" t="s">
-        <v>866</v>
+        <v>861</v>
+      </c>
+      <c r="C8" t="s">
+        <v>861</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>163</v>
       </c>
-      <c r="E9" t="s">
-        <v>863</v>
+      <c r="D9" t="s">
+        <v>865</v>
       </c>
       <c r="F9" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
+      <c r="G9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="E10" t="s">
-        <v>863</v>
+      <c r="D10" t="s">
+        <v>865</v>
       </c>
       <c r="F10" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" t="s">
-        <v>865</v>
+      <c r="G10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>856</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>858</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" t="s">
-        <v>862</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B14" t="s">
+        <v>861</v>
+      </c>
+      <c r="C14" t="s">
+        <v>861</v>
+      </c>
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>858</v>
-      </c>
-      <c r="B14" t="s">
-        <v>858</v>
-      </c>
-      <c r="D14" t="s">
-        <v>859</v>
-      </c>
-      <c r="E14" t="s">
-        <v>866</v>
-      </c>
       <c r="F14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>824</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" t="s">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>870</v>
+      </c>
+      <c r="G16" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -10125,15 +10170,15 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B5" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -10144,10 +10189,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -10158,10 +10203,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C7" t="s">
         <v>288</v>
@@ -10175,7 +10220,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="C8" t="s">
         <v>289</v>
@@ -10186,10 +10231,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B9" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="C9" t="s">
         <v>292</v>
@@ -10200,29 +10245,29 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C10" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="D10" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="B12" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="C12" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="D12" t="s">
         <v>242</v>
@@ -10230,10 +10275,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B13" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C13" t="s">
         <v>134</v>
@@ -10244,48 +10289,48 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="C14" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D14" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="C15" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="D15" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C16" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="D16" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B18" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
@@ -10299,7 +10344,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
@@ -10310,10 +10355,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B20" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C20" t="s">
         <v>104</v>
@@ -10324,26 +10369,26 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C21" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="C22" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D22" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10351,7 +10396,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C24" t="s">
         <v>102</v>
@@ -10362,10 +10407,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="B25" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
@@ -10376,76 +10421,76 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B26" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C26" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D26" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C27" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D27" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="C28" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D28" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C29" t="s">
-        <v>918</v>
+        <v>875</v>
       </c>
       <c r="D29" t="s">
-        <v>927</v>
+        <v>873</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B31" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C31" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D31" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="B32" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C32" t="s">
         <v>79</v>
@@ -10453,10 +10498,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C33" t="s">
-        <v>918</v>
+        <v>875</v>
       </c>
       <c r="D33" t="s">
         <v>869</v>
@@ -10464,13 +10509,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="C34" t="s">
-        <v>918</v>
+        <v>875</v>
       </c>
       <c r="D34" t="s">
-        <v>927</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -10502,10 +10547,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10513,18 +10558,18 @@
         <v>832</v>
       </c>
       <c r="C3" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10537,10 +10582,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C6" t="s">
         <v>278</v>
@@ -10551,32 +10596,32 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C7" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D7" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C8" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D8" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B9" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C9" t="s">
         <v>281</v>
@@ -10587,18 +10632,18 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C10" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D10" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C11" t="s">
         <v>837</v>
@@ -10609,35 +10654,35 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B12" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C12" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D12" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B13" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C13" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D13" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -10648,17 +10693,17 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -10666,10 +10711,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C18" t="s">
-        <v>950</v>
+        <v>874</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
